--- a/result.xlsx
+++ b/result.xlsx
@@ -8,49 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7234A59-8BBD-9447-8091-6890CBA96203}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21820CF2-7331-A847-A774-3539B82A3043}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="540" windowWidth="25440" windowHeight="14400" xr2:uid="{B61788FE-B626-4F4E-8DEB-0C7704611D16}"/>
+    <workbookView xWindow="3300" yWindow="460" windowWidth="25440" windowHeight="14400" xr2:uid="{B61788FE-B626-4F4E-8DEB-0C7704611D16}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BSD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$4:$I$4</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$5:$I$5</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$6:$I$6</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$7:$I$7</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$8:$I$8</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$9:$I$9</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$3:$A$9</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$3:$B$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$C$3:$C$9</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$D$2</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$D$3:$D$9</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$E$2</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$E$3:$E$9</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$F$2</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$F$3:$F$9</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$G$2</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$G$3:$G$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$H$2</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$H$3:$H$9</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$I$2</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$I$3:$I$9</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$8</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$2:$I$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$3:$I$3</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -61,9 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>wall street</t>
+    <t>wall street with turns</t>
+  </si>
+  <si>
+    <t>union square with turns</t>
+  </si>
+  <si>
+    <t>cmu with turns</t>
   </si>
 </sst>
 </file>
@@ -128,7 +98,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,7 +203,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>BSD!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -254,7 +226,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$I$2</c:f>
+              <c:f>BSD!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -287,7 +259,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$I$3</c:f>
+              <c:f>BSD!$B$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -330,7 +302,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>BSD!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -353,7 +325,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$I$2</c:f>
+              <c:f>BSD!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -386,7 +358,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:f>BSD!$B$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -429,7 +401,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>BSD!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -452,7 +424,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$I$2</c:f>
+              <c:f>BSD!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -485,7 +457,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$I$5</c:f>
+              <c:f>BSD!$B$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -528,7 +500,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
+              <c:f>BSD!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -551,7 +523,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$I$2</c:f>
+              <c:f>BSD!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -584,7 +556,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:f>BSD!$B$6:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -627,7 +599,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
+              <c:f>BSD!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -650,7 +622,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$I$2</c:f>
+              <c:f>BSD!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -683,7 +655,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$I$7</c:f>
+              <c:f>BSD!$B$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -726,7 +698,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
+              <c:f>BSD!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -749,7 +721,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$I$2</c:f>
+              <c:f>BSD!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -782,7 +754,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$I$8</c:f>
+              <c:f>BSD!$B$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -825,7 +797,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$9</c:f>
+              <c:f>BSD!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -850,7 +822,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$I$2</c:f>
+              <c:f>BSD!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -883,7 +855,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$I$9</c:f>
+              <c:f>BSD!$B$9:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1117,7 +1089,2037 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>union</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> square</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA2B-604F-93B2-68C38EA564CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD!$B$20:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.316</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA2B-604F-93B2-68C38EA564CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD!$B$21:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88800000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FA2B-604F-93B2-68C38EA564CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD!$B$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FA2B-604F-93B2-68C38EA564CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD!$B$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FA2B-604F-93B2-68C38EA564CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD!$B$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FA2B-604F-93B2-68C38EA564CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD!$B$25:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FA2B-604F-93B2-68C38EA564CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="442669936"/>
+        <c:axId val="441360000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="442669936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441360000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441360000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442669936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>cmu</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD!$B$34:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD!$B$35:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6138-4F41-8D36-9D33E3F8808E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD!$B$34:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD!$B$36:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6138-4F41-8D36-9D33E3F8808E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD!$B$34:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD!$B$37:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6138-4F41-8D36-9D33E3F8808E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD!$B$34:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD!$B$38:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.746</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6138-4F41-8D36-9D33E3F8808E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD!$B$34:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD!$B$39:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6138-4F41-8D36-9D33E3F8808E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD!$B$34:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD!$B$40:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6138-4F41-8D36-9D33E3F8808E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD!$B$34:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD!$B$41:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.25600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.874</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6138-4F41-8D36-9D33E3F8808E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="414937120"/>
+        <c:axId val="415217552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="414937120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415217552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="415217552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414937120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1673,6 +3675,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1706,6 +4740,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC54C9C-EE58-2543-A6EE-DAC875E855B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E87ADF-893D-D947-93D8-D4F176546198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2011,22 +5117,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0696D5-A371-9F4F-BB99-FEDCE10E8E3F}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -2261,7 +5367,506 @@
         <v>0.98399999999999999</v>
       </c>
     </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2">
+        <v>25</v>
+      </c>
+      <c r="G18" s="2">
+        <v>30</v>
+      </c>
+      <c r="H18" s="2">
+        <v>35</v>
+      </c>
+      <c r="I18" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.128</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.316</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>70</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>75</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>80</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>90</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>100</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.378</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="2">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2">
+        <v>15</v>
+      </c>
+      <c r="E34" s="2">
+        <v>20</v>
+      </c>
+      <c r="F34" s="2">
+        <v>25</v>
+      </c>
+      <c r="G34" s="2">
+        <v>30</v>
+      </c>
+      <c r="H34" s="2">
+        <v>35</v>
+      </c>
+      <c r="I34" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>50</v>
+      </c>
+      <c r="B35" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>70</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>75</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.746</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>80</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.224</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.628</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>90</v>
+      </c>
+      <c r="B40" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>100</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.874</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A33:I33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F79068-3DB6-9F4C-8B3C-EFCFE0B1F06C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9985572-CAB4-A74F-93AD-9E9FD939B0A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10100" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9985572-CAB4-A74F-93AD-9E9FD939B0A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0CBB1A-1FA0-C949-A0C2-08CB40CD6099}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>wall street with turns (new test routes)</t>
   </si>
@@ -1216,28 +1216,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.2000000000000003E-2</c:v>
+                  <c:v>3.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31</c:v>
+                  <c:v>0.35199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.66200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77800000000000002</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86399999999999999</c:v>
+                  <c:v>0.89800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93200000000000005</c:v>
+                  <c:v>0.94199999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95799999999999996</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.96</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1752,6 +1752,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1827,6 +1851,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1902,6 +1950,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1977,6 +2049,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2054,6 +2150,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2161,6 +2281,106 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-BC79-E445-BC67-FD5EFE649D6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$44:$I$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A38E-DD4D-9A30-145F4CBD52FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3266,28 +3486,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.5999999999999999E-2</c:v>
+                  <c:v>3.5999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16400000000000001</c:v>
+                  <c:v>0.17199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31</c:v>
+                  <c:v>0.35199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47799999999999998</c:v>
+                  <c:v>0.52200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66200000000000003</c:v>
+                  <c:v>0.71799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82399999999999995</c:v>
+                  <c:v>0.83599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.89800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94199999999999995</c:v>
+                  <c:v>0.92800000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4498,28 +4718,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.112</c:v>
+                  <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22600000000000001</c:v>
+                  <c:v>0.252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35399999999999998</c:v>
+                  <c:v>0.374</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45800000000000002</c:v>
+                  <c:v>0.54600000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56799999999999995</c:v>
+                  <c:v>0.60399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.63</c:v>
+                  <c:v>0.66200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.67800000000000005</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4815,7 +5035,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$50</c:f>
+              <c:f>BSD_length!$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4838,7 +5058,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$49:$I$49</c:f>
+              <c:f>BSD_length!$B$46:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4871,34 +5091,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$50:$I$50</c:f>
+              <c:f>BSD_length!$B$47:$I$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4914,7 +5110,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$51</c:f>
+              <c:f>BSD_length!$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4937,7 +5133,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$49:$I$49</c:f>
+              <c:f>BSD_length!$B$46:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4970,34 +5166,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$51:$I$51</c:f>
+              <c:f>BSD_length!$B$48:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.3999999999999997E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5013,7 +5185,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$52</c:f>
+              <c:f>BSD_length!$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5036,7 +5208,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$49:$I$49</c:f>
+              <c:f>BSD_length!$B$46:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5069,34 +5241,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$52:$I$52</c:f>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.7999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.106</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.248</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.35599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.436</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5112,7 +5260,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$53</c:f>
+              <c:f>BSD_length!$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5135,7 +5283,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$49:$I$49</c:f>
+              <c:f>BSD_length!$B$46:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5168,34 +5316,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$53:$I$53</c:f>
+              <c:f>BSD_length!$B$50:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.1999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.59199999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.68400000000000005</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5211,7 +5335,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$54</c:f>
+              <c:f>BSD_length!$A$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5234,7 +5358,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$49:$I$49</c:f>
+              <c:f>BSD_length!$B$46:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5267,34 +5391,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$54:$I$54</c:f>
+              <c:f>BSD_length!$B$51:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.33400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.54400000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.754</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.82399999999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.86199999999999999</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5310,7 +5410,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$55</c:f>
+              <c:f>BSD_length!$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5333,7 +5433,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$49:$I$49</c:f>
+              <c:f>BSD_length!$B$46:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5366,34 +5466,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$55:$I$55</c:f>
+              <c:f>BSD_length!$B$52:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.122</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.442</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.72199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.85199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.95399999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.96199999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95199999999999996</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5409,7 +5485,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$56</c:f>
+              <c:f>BSD_length!$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5434,7 +5510,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$49:$I$49</c:f>
+              <c:f>BSD_length!$B$46:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5467,34 +5543,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$56:$I$56</c:f>
+              <c:f>BSD_length!$B$53:$I$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.34599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.79600000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.94599999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.98399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.96399999999999997</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5510,7 +5562,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$57</c:f>
+              <c:f>BSD_length!$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5534,7 +5586,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$49:$I$49</c:f>
+              <c:f>BSD_length!$B$46:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5567,7 +5619,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$57:$I$57</c:f>
+              <c:f>BSD_length!$B$54:$I$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5602,6 +5654,207 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-6834-0940-A63C-3ADD722AF8EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Turns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$46:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$55:$I$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5905-FE4D-897F-6C8C9990B7EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$46:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$56:$I$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57399999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5905-FE4D-897F-6C8C9990B7EC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6804,28 +7057,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3999999999999996E-2</c:v>
+                  <c:v>7.8E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.152</c:v>
+                  <c:v>0.14599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20200000000000001</c:v>
+                  <c:v>0.26200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.314</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44</c:v>
+                  <c:v>0.47199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53200000000000003</c:v>
+                  <c:v>0.55800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59799999999999998</c:v>
+                  <c:v>0.64400000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10532,13 +10785,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10902,8 +11155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11158,28 +11411,28 @@
         <v>8</v>
       </c>
       <c r="B14" s="3">
-        <v>4.2000000000000003E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="C14" s="3">
-        <v>0.31</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="D14" s="3">
-        <v>0.57999999999999996</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="E14" s="3">
-        <v>0.77800000000000002</v>
+        <v>0.82</v>
       </c>
       <c r="F14" s="3">
-        <v>0.86399999999999999</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="G14" s="3">
-        <v>0.93200000000000005</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="H14" s="3">
-        <v>0.95799999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="I14" s="3">
-        <v>0.96</v>
+        <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -11432,28 +11685,28 @@
         <v>8</v>
       </c>
       <c r="B28" s="18">
-        <v>4.5999999999999999E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="C28" s="18">
-        <v>0.16400000000000001</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="D28" s="18">
-        <v>0.31</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="E28" s="18">
-        <v>0.47799999999999998</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="F28" s="18">
-        <v>0.66200000000000003</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="G28" s="18">
-        <v>0.82399999999999995</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="H28" s="18">
         <v>0.89800000000000002</v>
       </c>
       <c r="I28" s="18">
-        <v>0.94199999999999995</v>
+        <v>0.92800000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -11548,106 +11801,204 @@
       <c r="A38" s="8">
         <v>70</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="B38" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0.216</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.434</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="F38" s="9">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0.87</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0.92600000000000005</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>75</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="B39" s="4">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>80</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="B40" s="3">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.97799999999999998</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>90</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="B41" s="3">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.996</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.98799999999999999</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>100</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="B42" s="3">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.996</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.98799999999999999</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>0.16</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>0.36</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>0.60599999999999998</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>0.73599999999999999</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>0.86399999999999999</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="3">
         <v>0.90800000000000003</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="3">
         <v>0.93</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="3">
         <v>0.93799999999999994</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="A44" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C44" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0.59</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0.71</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="I44" s="9">
+        <v>0.85199999999999998</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="14"/>
@@ -11674,10 +12025,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A6:I58"/>
+  <dimension ref="A6:I56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11958,28 +12309,28 @@
         <v>8</v>
       </c>
       <c r="B17" s="12">
-        <v>0.03</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C17" s="12">
-        <v>0.112</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D17" s="12">
-        <v>0.22600000000000001</v>
+        <v>0.252</v>
       </c>
       <c r="E17" s="12">
-        <v>0.35399999999999998</v>
+        <v>0.374</v>
       </c>
       <c r="F17" s="12">
-        <v>0.45800000000000002</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G17" s="12">
-        <v>0.56799999999999995</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="H17" s="12">
-        <v>0.63</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="I17" s="12">
-        <v>0.67800000000000005</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -12255,371 +12606,265 @@
         <v>8</v>
       </c>
       <c r="B34" s="3">
-        <v>1.7999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C34" s="3">
-        <v>7.3999999999999996E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="D34" s="3">
-        <v>0.152</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="E34" s="3">
-        <v>0.20200000000000001</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="F34" s="3">
-        <v>0.314</v>
+        <v>0.35</v>
       </c>
       <c r="G34" s="3">
-        <v>0.44</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="H34" s="3">
-        <v>0.53200000000000003</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="I34" s="3">
-        <v>0.59799999999999998</v>
+        <v>0.64400000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
     </row>
-    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="B46" s="1">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>10</v>
+      </c>
+      <c r="D46" s="1">
+        <v>15</v>
+      </c>
+      <c r="E46" s="1">
+        <v>20</v>
+      </c>
+      <c r="F46" s="1">
+        <v>25</v>
+      </c>
+      <c r="G46" s="1">
+        <v>30</v>
+      </c>
+      <c r="H46" s="1">
+        <v>35</v>
+      </c>
+      <c r="I46" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
+      <c r="A47" s="2">
+        <v>50</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
+    <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>60</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="1">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1">
-        <v>10</v>
-      </c>
-      <c r="D49" s="1">
-        <v>15</v>
-      </c>
-      <c r="E49" s="1">
-        <v>20</v>
-      </c>
-      <c r="F49" s="1">
-        <v>25</v>
-      </c>
-      <c r="G49" s="1">
-        <v>30</v>
-      </c>
-      <c r="H49" s="1">
-        <v>35</v>
-      </c>
-      <c r="I49" s="1">
-        <v>40</v>
-      </c>
+    <row r="49" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>70</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>50</v>
-      </c>
-      <c r="B50" s="3">
-        <v>0</v>
-      </c>
-      <c r="C50" s="3">
-        <v>0</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3">
-        <v>0</v>
-      </c>
-      <c r="H50" s="3">
-        <v>0</v>
-      </c>
-      <c r="I50" s="3">
-        <v>2E-3</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>60</v>
-      </c>
-      <c r="B51" s="3">
-        <v>0</v>
-      </c>
-      <c r="C51" s="3">
-        <v>0</v>
-      </c>
-      <c r="D51" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E51" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F51" s="3">
-        <v>1.6E-2</v>
-      </c>
-      <c r="G51" s="3">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="H51" s="3">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="I51" s="3">
-        <v>4.3999999999999997E-2</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>70</v>
-      </c>
-      <c r="B52" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="C52" s="3">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="D52" s="3">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0.106</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0.192</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0.248</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0.436</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>75</v>
-      </c>
-      <c r="B53" s="3">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="C53" s="3">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="H53" s="3">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0.68400000000000005</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>80</v>
-      </c>
-      <c r="B54" s="3">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="C54" s="3">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0.68</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0.754</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0.86199999999999999</v>
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>0.11</v>
+      </c>
+      <c r="C54">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="D54">
+        <v>0.442</v>
+      </c>
+      <c r="E54">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="F54">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="G54">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="H54">
+        <v>0.85</v>
+      </c>
+      <c r="I54">
+        <v>0.84199999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>90</v>
-      </c>
-      <c r="B55" s="3">
-        <v>0.122</v>
-      </c>
-      <c r="C55" s="3">
-        <v>0.442</v>
-      </c>
-      <c r="D55" s="3">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="G55" s="3">
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="H55" s="3">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="I55" s="3">
-        <v>0.95199999999999996</v>
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>2E-3</v>
+      </c>
+      <c r="C55">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D55">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E55">
+        <v>0.108</v>
+      </c>
+      <c r="F55">
+        <v>0.182</v>
+      </c>
+      <c r="G55">
+        <v>0.27</v>
+      </c>
+      <c r="H55">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="I55">
+        <v>0.48799999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>100</v>
-      </c>
-      <c r="B56" s="3">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="C56" s="3">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="D56" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0.97</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="I56" s="3">
-        <v>0.96399999999999997</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57">
-        <v>0.11</v>
-      </c>
-      <c r="C57">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="D57">
-        <v>0.442</v>
-      </c>
-      <c r="E57">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="F57">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="G57">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="H57">
-        <v>0.85</v>
-      </c>
-      <c r="I57">
-        <v>0.84199999999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58">
-        <v>2E-3</v>
-      </c>
-      <c r="C58">
-        <v>1.6E-2</v>
-      </c>
-      <c r="D58">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="E58">
-        <v>0.108</v>
-      </c>
-      <c r="F58">
-        <v>0.182</v>
-      </c>
-      <c r="G58">
-        <v>0.27</v>
-      </c>
-      <c r="H58">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="I58">
-        <v>0.48799999999999999</v>
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="7">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C56" s="7">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0.222</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0.57399999999999995</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A45:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0CBB1A-1FA0-C949-A0C2-08CB40CD6099}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26649496-AEAD-5649-9BCA-45025B3E0AFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>wall street with turns (new test routes)</t>
   </si>
@@ -53,7 +53,13 @@
     <t>hudsonriver without turns (new test routes)</t>
   </si>
   <si>
-    <t>BSD</t>
+    <t>BSD resnet18</t>
+  </si>
+  <si>
+    <t>BSD alexnet</t>
+  </si>
+  <si>
+    <t>BSD resnet50</t>
   </si>
 </sst>
 </file>
@@ -85,7 +91,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF7030A0"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -152,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -185,30 +191,30 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -308,95 +314,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>wall</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>street</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>(new</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>test</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>routes)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -407,11 +325,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$6</c:f>
+              <c:f>'BSD_T_length '!$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -430,7 +348,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$5:$I$5</c:f>
+              <c:f>'BSD_T_length '!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -463,17 +381,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$6:$I$6</c:f>
+              <c:f>'BSD_T_length '!$B$50:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-440D-394B-B7E9-0B672AE5C298}"/>
+              <c16:uniqueId val="{00000000-2335-A142-8603-324DAE0EF309}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -482,11 +424,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$7</c:f>
+              <c:f>'BSD_T_length '!$A$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -505,7 +447,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$5:$I$5</c:f>
+              <c:f>'BSD_T_length '!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -538,17 +480,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$7:$I$7</c:f>
+              <c:f>'BSD_T_length '!$B$51:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-440D-394B-B7E9-0B672AE5C298}"/>
+              <c16:uniqueId val="{00000001-2335-A142-8603-324DAE0EF309}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -557,11 +523,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$8</c:f>
+              <c:f>'BSD_T_length '!$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -580,7 +546,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$5:$I$5</c:f>
+              <c:f>'BSD_T_length '!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -613,33 +579,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$8:$I$8</c:f>
+              <c:f>'BSD_T_length '!$B$52:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.3999999999999999E-2</c:v>
+                  <c:v>0.14399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26600000000000001</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57799999999999996</c:v>
+                  <c:v>0.73799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83799999999999997</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91800000000000004</c:v>
+                  <c:v>0.95799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96799999999999997</c:v>
+                  <c:v>0.98599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98199999999999998</c:v>
+                  <c:v>0.98599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95399999999999996</c:v>
+                  <c:v>0.97799999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -647,7 +613,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-440D-394B-B7E9-0B672AE5C298}"/>
+              <c16:uniqueId val="{00000002-2335-A142-8603-324DAE0EF309}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -656,11 +622,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$9</c:f>
+              <c:f>'BSD_T_length '!$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -679,7 +645,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$5:$I$5</c:f>
+              <c:f>'BSD_T_length '!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -712,33 +678,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$9:$I$9</c:f>
+              <c:f>'BSD_T_length '!$B$53:$I$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9.6000000000000002E-2</c:v>
+                  <c:v>0.35799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48199999999999998</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79</c:v>
+                  <c:v>0.91200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94199999999999995</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97599999999999998</c:v>
+                  <c:v>0.99199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98599999999999999</c:v>
+                  <c:v>0.996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98199999999999998</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97599999999999998</c:v>
+                  <c:v>0.98799999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -746,7 +712,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-440D-394B-B7E9-0B672AE5C298}"/>
+              <c16:uniqueId val="{00000003-2335-A142-8603-324DAE0EF309}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -755,11 +721,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$10</c:f>
+              <c:f>'BSD_T_length '!$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -778,7 +744,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$5:$I$5</c:f>
+              <c:f>'BSD_T_length '!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -811,33 +777,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$10:$I$10</c:f>
+              <c:f>'BSD_T_length '!$B$54:$I$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.154</c:v>
+                  <c:v>0.60599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64400000000000002</c:v>
+                  <c:v>0.89600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90400000000000003</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98199999999999998</c:v>
+                  <c:v>0.99199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.98799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.99199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.98199999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -845,7 +811,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-440D-394B-B7E9-0B672AE5C298}"/>
+              <c16:uniqueId val="{00000004-2335-A142-8603-324DAE0EF309}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -854,207 +820,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$5:$I$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$11:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.35799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.89200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.99399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.98399999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-440D-394B-B7E9-0B672AE5C298}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BSD_T_length '!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$5:$I$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$12:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.70599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.97399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.98599999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-440D-394B-B7E9-0B672AE5C298}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BSD_T_length '!$A$13</c:f>
+              <c:f>'BSD_T_length '!$A$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1067,106 +833,6 @@
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$5:$I$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$13:$I$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.436</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.83199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.91200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.97199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.97199999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-440D-394B-B7E9-0B672AE5C298}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BSD_T_length '!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BSD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:prstDash val="dashDot"/>
               <a:round/>
@@ -1178,7 +844,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$5:$I$5</c:f>
+              <c:f>'BSD_T_length '!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1211,33 +877,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$14:$I$14</c:f>
+              <c:f>'BSD_T_length '!$B$55:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.7999999999999999E-2</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35199999999999998</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66200000000000003</c:v>
+                  <c:v>0.60599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82</c:v>
+                  <c:v>0.73599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89800000000000002</c:v>
+                  <c:v>0.86399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94199999999999995</c:v>
+                  <c:v>0.90800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>0.93799999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1245,7 +911,311 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-915E-D14C-B6F9-635875F9EC86}"/>
+              <c16:uniqueId val="{00000005-2335-A142-8603-324DAE0EF309}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD resnet18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$49:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$56:$I$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2335-A142-8603-324DAE0EF309}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD alexnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$49:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$57:$I$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-2335-A142-8603-324DAE0EF309}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD resnet50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$49:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$58:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-379B-8647-B387-75854628ECC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1258,11 +1228,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="142464288"/>
-        <c:axId val="142476448"/>
+        <c:axId val="684089519"/>
+        <c:axId val="683948383"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142464288"/>
+        <c:axId val="684089519"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,7 +1275,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142476448"/>
+        <c:crossAx val="683948383"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1313,7 +1283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142476448"/>
+        <c:axId val="683948383"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1365,10 +1335,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142464288"/>
+        <c:crossAx val="684089519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1467,71 +1436,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>hudson</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>river</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1542,11 +1447,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$36</c:f>
+              <c:f>'BSD_T_length '!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1565,7 +1470,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
+              <c:f>'BSD_T_length '!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1598,17 +1503,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$36:$I$36</c:f>
+              <c:f>'BSD_T_length '!$B$28:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.878</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC79-E445-BC67-FD5EFE649D6F}"/>
+              <c16:uniqueId val="{00000000-4BCE-F447-A8E4-D0960CD6666F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1617,11 +1546,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$37</c:f>
+              <c:f>'BSD_T_length '!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1640,7 +1569,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
+              <c:f>'BSD_T_length '!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1673,17 +1602,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$37:$I$37</c:f>
+              <c:f>'BSD_T_length '!$B$29:$I$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BC79-E445-BC67-FD5EFE649D6F}"/>
+              <c16:uniqueId val="{00000001-4BCE-F447-A8E4-D0960CD6666F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1692,11 +1645,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$38</c:f>
+              <c:f>'BSD_T_length '!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1715,7 +1668,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
+              <c:f>'BSD_T_length '!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1748,33 +1701,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$38:$I$38</c:f>
+              <c:f>'BSD_T_length '!$B$30:$I$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.216</c:v>
+                  <c:v>0.42599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.434</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61399999999999999</c:v>
+                  <c:v>0.86199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77400000000000002</c:v>
+                  <c:v>0.94199999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87</c:v>
+                  <c:v>0.97399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91800000000000004</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92600000000000005</c:v>
+                  <c:v>0.98799999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1782,7 +1735,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BC79-E445-BC67-FD5EFE649D6F}"/>
+              <c16:uniqueId val="{00000002-4BCE-F447-A8E4-D0960CD6666F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1791,11 +1744,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$39</c:f>
+              <c:f>'BSD_T_length '!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1814,7 +1767,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
+              <c:f>'BSD_T_length '!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1847,33 +1800,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$39:$I$39</c:f>
+              <c:f>'BSD_T_length '!$B$31:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7.3999999999999996E-2</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33400000000000002</c:v>
+                  <c:v>0.68200000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60399999999999998</c:v>
+                  <c:v>0.88800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78800000000000003</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89400000000000002</c:v>
+                  <c:v>0.99399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95399999999999996</c:v>
+                  <c:v>0.998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97799999999999998</c:v>
+                  <c:v>0.998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97</c:v>
+                  <c:v>0.98799999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1881,7 +1834,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BC79-E445-BC67-FD5EFE649D6F}"/>
+              <c16:uniqueId val="{00000003-4BCE-F447-A8E4-D0960CD6666F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1890,11 +1843,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$40</c:f>
+              <c:f>'BSD_T_length '!$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1913,7 +1866,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
+              <c:f>'BSD_T_length '!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1946,33 +1899,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$40:$I$40</c:f>
+              <c:f>'BSD_T_length '!$B$32:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.14399999999999999</c:v>
+                  <c:v>0.49199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.86199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73799999999999999</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89</c:v>
+                  <c:v>0.98399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95799999999999996</c:v>
+                  <c:v>0.998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98599999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98599999999999999</c:v>
+                  <c:v>0.998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97799999999999998</c:v>
+                  <c:v>0.99199999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1980,7 +1933,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BC79-E445-BC67-FD5EFE649D6F}"/>
+              <c16:uniqueId val="{00000004-4BCE-F447-A8E4-D0960CD6666F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1989,207 +1942,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$41</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$41:$I$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.35799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.91200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.99199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.98799999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-BC79-E445-BC67-FD5EFE649D6F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BSD_T_length '!$A$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$42:$I$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.60599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.89600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.99399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.98799999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-BC79-E445-BC67-FD5EFE649D6F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BSD_T_length '!$A$43</c:f>
+              <c:f>'BSD_T_length '!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2202,106 +1955,6 @@
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$43:$I$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.60599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.86399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.90800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.93799999999999994</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-BC79-E445-BC67-FD5EFE649D6F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BSD_T_length '!$A$44</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BSD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:prstDash val="dashDot"/>
               <a:round/>
@@ -2313,7 +1966,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
+              <c:f>'BSD_T_length '!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2346,33 +1999,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$44:$I$44</c:f>
+              <c:f>'BSD_T_length '!$B$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.13200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.34200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44</c:v>
+                  <c:v>0.57599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78800000000000003</c:v>
+                  <c:v>0.91200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.84399999999999997</c:v>
+                  <c:v>0.94399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85199999999999998</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2380,7 +2033,311 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A38E-DD4D-9A30-145F4CBD52FA}"/>
+              <c16:uniqueId val="{00000005-4BCE-F447-A8E4-D0960CD6666F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD resnet18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$34:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4BCE-F447-A8E4-D0960CD6666F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD alexnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4BCE-F447-A8E4-D0960CD6666F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD resnet50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$36:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F29C-3A49-80EB-9F79A0995AC9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2393,11 +2350,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="212403104"/>
-        <c:axId val="211165568"/>
+        <c:axId val="618501775"/>
+        <c:axId val="684783311"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="212403104"/>
+        <c:axId val="618501775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2440,7 +2397,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211165568"/>
+        <c:crossAx val="684783311"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2448,7 +2405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211165568"/>
+        <c:axId val="684783311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2500,10 +2457,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212403104"/>
+        <c:crossAx val="618501775"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2602,71 +2558,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>union</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>square</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2677,11 +2569,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$20</c:f>
+              <c:f>'BSD_T_length '!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2691,6 +2583,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2700,7 +2593,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:f>'BSD_T_length '!$B$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2733,17 +2626,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$20:$I$20</c:f>
+              <c:f>'BSD_T_length '!$B$6:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8924-A541-A642-74D4F90B7F61}"/>
+              <c16:uniqueId val="{00000000-7BE0-764C-8F47-DC88E2761FA9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2752,11 +2669,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$21</c:f>
+              <c:f>'BSD_T_length '!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2775,7 +2692,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:f>'BSD_T_length '!$B$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2808,17 +2725,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$21:$I$21</c:f>
+              <c:f>'BSD_T_length '!$B$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8924-A541-A642-74D4F90B7F61}"/>
+              <c16:uniqueId val="{00000001-7BE0-764C-8F47-DC88E2761FA9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2827,11 +2768,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$22</c:f>
+              <c:f>'BSD_T_length '!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2850,7 +2791,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:f>'BSD_T_length '!$B$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2883,33 +2824,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$22:$I$22</c:f>
+              <c:f>'BSD_T_length '!$B$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.4000000000000002E-2</c:v>
+                  <c:v>0.154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.154</c:v>
+                  <c:v>0.64400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40799999999999997</c:v>
+                  <c:v>0.90400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.98199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76200000000000001</c:v>
+                  <c:v>0.98799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.878</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92200000000000004</c:v>
+                  <c:v>0.99199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95399999999999996</c:v>
+                  <c:v>0.98199999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2917,7 +2858,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8924-A541-A642-74D4F90B7F61}"/>
+              <c16:uniqueId val="{00000002-7BE0-764C-8F47-DC88E2761FA9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2926,11 +2867,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$23</c:f>
+              <c:f>'BSD_T_length '!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2949,7 +2890,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:f>'BSD_T_length '!$B$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2982,33 +2923,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$23:$I$23</c:f>
+              <c:f>'BSD_T_length '!$B$9:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.6000000000000001E-2</c:v>
+                  <c:v>0.35799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29599999999999999</c:v>
+                  <c:v>0.89200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54</c:v>
+                  <c:v>0.99399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.748</c:v>
+                  <c:v>0.996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85799999999999998</c:v>
+                  <c:v>0.998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93</c:v>
+                  <c:v>0.99399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96599999999999997</c:v>
+                  <c:v>0.998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98</c:v>
+                  <c:v>0.98399999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3016,7 +2957,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8924-A541-A642-74D4F90B7F61}"/>
+              <c16:uniqueId val="{00000003-7BE0-764C-8F47-DC88E2761FA9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3025,11 +2966,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$24</c:f>
+              <c:f>'BSD_T_length '!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3048,7 +2989,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:f>'BSD_T_length '!$B$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3081,33 +3022,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$24:$I$24</c:f>
+              <c:f>'BSD_T_length '!$B$10:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8.4000000000000005E-2</c:v>
+                  <c:v>0.70599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42599999999999999</c:v>
+                  <c:v>0.97399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7</c:v>
+                  <c:v>0.996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86199999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94199999999999995</c:v>
+                  <c:v>0.998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97399999999999998</c:v>
+                  <c:v>0.996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98</c:v>
+                  <c:v>0.998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98799999999999999</c:v>
+                  <c:v>0.98599999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3115,7 +3056,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8924-A541-A642-74D4F90B7F61}"/>
+              <c16:uniqueId val="{00000004-7BE0-764C-8F47-DC88E2761FA9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3124,207 +3065,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$25:$I$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.68200000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.88800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.99399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.98799999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-8924-A541-A642-74D4F90B7F61}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BSD_T_length '!$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$26:$I$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.49199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.86199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.99199999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-8924-A541-A642-74D4F90B7F61}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BSD_T_length '!$A$27</c:f>
+              <c:f>'BSD_T_length '!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3337,106 +3078,6 @@
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$27:$I$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.13200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.34200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.57599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.91200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94399999999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.97</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-8924-A541-A642-74D4F90B7F61}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BSD_T_length '!$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BSD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:prstDash val="dashDot"/>
               <a:round/>
@@ -3448,7 +3089,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:f>'BSD_T_length '!$B$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3481,33 +3122,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$28:$I$28</c:f>
+              <c:f>'BSD_T_length '!$B$11:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.5999999999999997E-2</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17199999999999999</c:v>
+                  <c:v>0.436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35199999999999998</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52200000000000002</c:v>
+                  <c:v>0.83199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71799999999999997</c:v>
+                  <c:v>0.91200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83599999999999997</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89800000000000002</c:v>
+                  <c:v>0.97199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92800000000000005</c:v>
+                  <c:v>0.97199999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3515,7 +3156,311 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DFDA-6D40-AB83-5082A8A4495D}"/>
+              <c16:uniqueId val="{00000005-7BE0-764C-8F47-DC88E2761FA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD resnet18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95199999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7BE0-764C-8F47-DC88E2761FA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD alexnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7BE0-764C-8F47-DC88E2761FA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD resnet50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$14:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3FE6-3043-BE87-B964693CE396}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3528,11 +3473,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1358567359"/>
-        <c:axId val="1358569039"/>
+        <c:axId val="661565727"/>
+        <c:axId val="661567407"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1358567359"/>
+        <c:axId val="661565727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3575,7 +3520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1358569039"/>
+        <c:crossAx val="661567407"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3583,7 +3528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1358569039"/>
+        <c:axId val="661567407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3635,10 +3580,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1358567359"/>
+        <c:crossAx val="661565727"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4660,7 +4604,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BSD</c:v>
+                  <c:v>BSD resnet18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4748,6 +4692,210 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-374F-FB4D-8F2A-2499171DFF08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD alexnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B346-8649-BF97-8E07AC64B27E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD resnet50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-416F-7140-82A2-454E41A3F01F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5767,7 +5915,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BSD</c:v>
+                  <c:v>BSD resnet18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5855,6 +6003,208 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5905-FE4D-897F-6C8C9990B7EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD alexnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$46:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$57:$I$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99DF-CA46-8AF6-9BC848532FCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD resnet50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$46:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$58:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F148-0A4E-AC94-66E7C63D2FB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6999,7 +7349,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BSD</c:v>
+                  <c:v>BSD resnet18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7087,6 +7437,208 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-42B4-2F44-8A68-57FCCB6D2E3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD alexnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$35:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DCA5-354F-9D2A-8E57ABC2731F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD resnet50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$36:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-002E-244A-A517-359583BDD1A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10634,23 +11186,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF697AA8-8B19-9746-BECA-977A392F99AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C9C4EF-96B7-E241-9701-5DACD2B81588}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10670,23 +11222,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB755F9E-AEE8-0E43-94A0-C171A4D373D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162407EF-2355-2D40-9C6D-557A7BC368CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10706,23 +11258,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CBDA5DB-FE0B-C842-B26A-DFF1D124C2C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19BBCD43-7E46-C24A-A76A-C2DDEA8EDE79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11153,10 +11705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11165,20 +11717,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="14"/>
+      <c r="A1" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
@@ -11208,814 +11760,992 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>50</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.95399999999999996</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>60</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="A7" s="14">
+        <v>75</v>
+      </c>
+      <c r="B7" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.97599999999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B8" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>0.154</v>
       </c>
       <c r="C8" s="3">
-        <v>0.26600000000000001</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="D8" s="3">
-        <v>0.57799999999999996</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="E8" s="3">
-        <v>0.83799999999999997</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="F8" s="3">
-        <v>0.91800000000000004</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="G8" s="3">
-        <v>0.96799999999999997</v>
+        <v>0.99</v>
       </c>
       <c r="H8" s="3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I8" s="3">
         <v>0.98199999999999998</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.95399999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
-        <v>75</v>
-      </c>
-      <c r="B9" s="4">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.97599999999999998</v>
+      <c r="A9" s="2">
+        <v>90</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.996</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B10" s="3">
-        <v>0.154</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="C10" s="3">
-        <v>0.64400000000000002</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="D10" s="3">
-        <v>0.90400000000000003</v>
+        <v>0.996</v>
       </c>
       <c r="E10" s="3">
-        <v>0.98199999999999998</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>0.98799999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="G10" s="3">
-        <v>0.99</v>
+        <v>0.996</v>
       </c>
       <c r="H10" s="3">
-        <v>0.99199999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="I10" s="3">
-        <v>0.98199999999999998</v>
+        <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>90</v>
+      <c r="A11" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B11" s="3">
-        <v>0.35799999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="C11" s="3">
-        <v>0.89200000000000002</v>
+        <v>0.436</v>
       </c>
       <c r="D11" s="3">
-        <v>0.99399999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="E11" s="3">
-        <v>0.996</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="F11" s="3">
-        <v>0.998</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="G11" s="3">
-        <v>0.99399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="H11" s="3">
-        <v>0.998</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="I11" s="3">
-        <v>0.98399999999999999</v>
+        <v>0.97199999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>100</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.996</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.998</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.996</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.998</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0.98599999999999999</v>
+      <c r="A12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="19">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.96</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.436</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.69</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.97199999999999998</v>
+      <c r="A13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="19">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0.92400000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="19">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0.314</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="H14" s="19">
         <v>0.96</v>
       </c>
-      <c r="I14" s="3">
-        <v>0.95199999999999996</v>
+      <c r="I14" s="19">
+        <v>0.95</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1">
-        <v>15</v>
-      </c>
-      <c r="E19" s="1">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1">
-        <v>25</v>
-      </c>
-      <c r="G19" s="1">
-        <v>30</v>
-      </c>
-      <c r="H19" s="1">
-        <v>35</v>
-      </c>
-      <c r="I19" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="19">
-        <v>70</v>
-      </c>
-      <c r="B22" s="17">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="C22" s="17">
-        <v>0.154</v>
-      </c>
-      <c r="D22" s="17">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="E22" s="21">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F22" s="17">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="G22" s="17">
-        <v>0.878</v>
-      </c>
-      <c r="H22" s="17">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="I22" s="17">
-        <v>0.95399999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
-        <v>75</v>
-      </c>
-      <c r="B23" s="17">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="C23" s="17">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="D23" s="17">
-        <v>0.54</v>
-      </c>
-      <c r="E23" s="17">
-        <v>0.748</v>
-      </c>
-      <c r="F23" s="17">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="G23" s="17">
-        <v>0.93</v>
-      </c>
-      <c r="H23" s="17">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="I23" s="17">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>80</v>
-      </c>
-      <c r="B24" s="7">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0.98</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0.98799999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>90</v>
-      </c>
-      <c r="B25" s="7">
-        <v>0.23</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0.96</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0.998</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0.998</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0.98799999999999999</v>
-      </c>
+    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>100</v>
-      </c>
-      <c r="B26" s="7">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0.96</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0.998</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="A26" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="7">
-        <v>0.998</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0.99199999999999999</v>
-      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="18">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="C27" s="18">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="D27" s="18">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="E27" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="F27" s="18">
-        <v>0.86</v>
-      </c>
-      <c r="G27" s="18">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="H27" s="18">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="I27" s="18">
-        <v>0.97</v>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1">
+        <v>20</v>
+      </c>
+      <c r="F27" s="1">
+        <v>25</v>
+      </c>
+      <c r="G27" s="1">
+        <v>30</v>
+      </c>
+      <c r="H27" s="1">
+        <v>35</v>
+      </c>
+      <c r="I27" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="18">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C28" s="18">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="D28" s="18">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="E28" s="18">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="F28" s="18">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="G28" s="18">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="H28" s="18">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="I28" s="18">
-        <v>0.92800000000000005</v>
+      <c r="A28" s="15">
+        <v>70</v>
+      </c>
+      <c r="B28" s="4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.154</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.878</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0.95399999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
+      <c r="A29" s="14">
+        <v>75</v>
+      </c>
+      <c r="B29" s="4">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.748</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0.98</v>
+      </c>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>80</v>
+      </c>
+      <c r="B30" s="3">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>90</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>100</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="E33" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
+      <c r="A34" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="19">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C34" s="19">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="F34" s="19">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="G34" s="19">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="H34" s="19">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="I34" s="19">
+        <v>0.92800000000000005</v>
+      </c>
     </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11">
-        <v>5</v>
-      </c>
-      <c r="C35" s="11">
-        <v>10</v>
-      </c>
-      <c r="D35" s="11">
-        <v>15</v>
-      </c>
-      <c r="E35" s="11">
-        <v>20</v>
-      </c>
-      <c r="F35" s="11">
-        <v>25</v>
-      </c>
-      <c r="G35" s="11">
-        <v>30</v>
-      </c>
-      <c r="H35" s="11">
-        <v>35</v>
-      </c>
-      <c r="I35" s="11">
-        <v>40</v>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="19">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C35" s="19">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="E35" s="19">
+        <v>0.376</v>
+      </c>
+      <c r="F35" s="19">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="G35" s="19">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="H35" s="19">
+        <v>0.84</v>
+      </c>
+      <c r="I35" s="19">
+        <v>0.88600000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
-        <v>50</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="19">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C36" s="19">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="E36" s="19">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="F36" s="19">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="G36" s="19">
+        <v>0.83</v>
+      </c>
+      <c r="H36" s="19">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="I36" s="19">
+        <v>0.94</v>
+      </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
-        <v>60</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
+    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+    </row>
+    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
+      <c r="B48" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11">
+        <v>5</v>
+      </c>
+      <c r="C49" s="11">
+        <v>10</v>
+      </c>
+      <c r="D49" s="11">
+        <v>15</v>
+      </c>
+      <c r="E49" s="11">
+        <v>20</v>
+      </c>
+      <c r="F49" s="11">
+        <v>25</v>
+      </c>
+      <c r="G49" s="11">
+        <v>30</v>
+      </c>
+      <c r="H49" s="11">
+        <v>35</v>
+      </c>
+      <c r="I49" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
         <v>70</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B50" s="9">
         <v>0.05</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C50" s="9">
         <v>0.216</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D50" s="9">
         <v>0.434</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E50" s="9">
         <v>0.61399999999999999</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F50" s="9">
         <v>0.77400000000000002</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G50" s="9">
         <v>0.87</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H50" s="9">
         <v>0.91800000000000004</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I50" s="9">
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
         <v>75</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B51" s="4">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C51" s="4">
         <v>0.33400000000000002</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D51" s="4">
         <v>0.60399999999999998</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E51" s="4">
         <v>0.78800000000000003</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F51" s="4">
         <v>0.89400000000000002</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G51" s="4">
         <v>0.95399999999999996</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H51" s="4">
         <v>0.97799999999999998</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I51" s="4">
         <v>0.97</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
         <v>80</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B52" s="3">
         <v>0.14399999999999999</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C52" s="3">
         <v>0.5</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D52" s="3">
         <v>0.73799999999999999</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E52" s="3">
         <v>0.89</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F52" s="3">
         <v>0.95799999999999996</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G52" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H52" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I52" s="3">
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="8">
         <v>90</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B53" s="3">
         <v>0.35799999999999998</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C53" s="3">
         <v>0.76</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D53" s="3">
         <v>0.91200000000000003</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E53" s="3">
         <v>0.97</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F53" s="3">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G53" s="3">
         <v>0.996</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H53" s="3">
         <v>0.99</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I53" s="3">
         <v>0.98799999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="8">
         <v>100</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B54" s="3">
         <v>0.60599999999999998</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C54" s="3">
         <v>0.89600000000000002</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D54" s="3">
         <v>0.98</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E54" s="3">
         <v>0.99199999999999999</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F54" s="3">
         <v>0.998</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G54" s="3">
         <v>0.996</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H54" s="3">
         <v>0.99399999999999999</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I54" s="3">
         <v>0.98799999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B55" s="3">
         <v>0.16</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C55" s="3">
         <v>0.36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D55" s="3">
         <v>0.60599999999999998</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E55" s="3">
         <v>0.73599999999999999</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F55" s="3">
         <v>0.86399999999999999</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G55" s="3">
         <v>0.90800000000000003</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H55" s="3">
         <v>0.93</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I55" s="3">
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B56" s="20">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C56" s="20">
         <v>0.25</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D56" s="20">
         <v>0.44</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E56" s="20">
         <v>0.59</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F56" s="20">
         <v>0.71</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G56" s="20">
         <v>0.78800000000000003</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H56" s="20">
         <v>0.84399999999999997</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I56" s="20">
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="19">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C57" s="19">
+        <v>0.184</v>
+      </c>
+      <c r="D57" s="19">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="E57" s="19">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="F57" s="19">
+        <v>0.61</v>
+      </c>
+      <c r="G57" s="19">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="H57" s="19">
+        <v>0.76</v>
+      </c>
+      <c r="I57" s="19">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="C58" s="19">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D58" s="19">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="E58" s="19">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="F58" s="19">
+        <v>0.68</v>
+      </c>
+      <c r="G58" s="19">
+        <v>0.77</v>
+      </c>
+      <c r="H58" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="I58" s="19">
+        <v>0.85199999999999998</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B48:I48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -12025,10 +12755,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A6:I56"/>
+  <dimension ref="A6:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12037,17 +12767,17 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
@@ -12304,8 +13034,8 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="12">
@@ -12333,18 +13063,76 @@
         <v>0.67</v>
       </c>
     </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C18" s="3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.126</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.246</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.376</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.67</v>
+      </c>
+    </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
@@ -12411,7 +13199,7 @@
       <c r="D27" s="3">
         <v>0.122</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="16">
         <v>0.19400000000000001</v>
       </c>
       <c r="F27" s="3">
@@ -12556,7 +13344,7 @@
       <c r="D32" s="3">
         <v>0.41199999999999998</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="16">
         <v>0.58399999999999996</v>
       </c>
       <c r="F32" s="3">
@@ -12602,32 +13390,90 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="19">
         <v>0.02</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="19">
         <v>7.8E-2</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="19">
         <v>0.14599999999999999</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="19">
         <v>0.26200000000000001</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="19">
         <v>0.35</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="19">
         <v>0.47199999999999998</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="19">
         <v>0.55800000000000005</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="19">
         <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="19">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C35" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="D35" s="19">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E35" s="19">
+        <v>0.106</v>
+      </c>
+      <c r="F35" s="19">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="G35" s="19">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="H35" s="19">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="I35" s="19">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="19">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C36" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0.124</v>
+      </c>
+      <c r="E36" s="19">
+        <v>0.216</v>
+      </c>
+      <c r="F36" s="19">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="G36" s="19">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="H36" s="19">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="I36" s="19">
+        <v>0.60199999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -12643,17 +13489,17 @@
       <c r="I44"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
@@ -12832,32 +13678,90 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="21">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="21">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="21">
         <v>0.222</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="21">
         <v>0.32400000000000001</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="21">
         <v>0.44800000000000001</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="21">
         <v>0.50600000000000001</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="21">
         <v>0.53400000000000003</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="21">
         <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="C57" s="21">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D57" s="21">
+        <v>0.114</v>
+      </c>
+      <c r="E57" s="21">
+        <v>0.158</v>
+      </c>
+      <c r="F57" s="21">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="G57" s="21">
+        <v>0.308</v>
+      </c>
+      <c r="H57" s="21">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="I57" s="21">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="C58" s="21">
+        <v>0.09</v>
+      </c>
+      <c r="D58" s="21">
+        <v>0.188</v>
+      </c>
+      <c r="E58" s="21">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F58" s="21">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="G58" s="21">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="H58" s="21">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="I58" s="21">
+        <v>0.50600000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26649496-AEAD-5649-9BCA-45025B3E0AFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ABE5E7-B4A0-F245-93F3-9920049B5663}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t>wall street with turns (new test routes)</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>BSD resnet50</t>
+  </si>
+  <si>
+    <t>BSD googlenet</t>
   </si>
 </sst>
 </file>
@@ -187,9 +190,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -205,9 +205,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -215,6 +212,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,11 +833,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:prstDash val="dashDot"/>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1216,6 +1219,106 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-379B-8647-B387-75854628ECC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD googlenet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$49:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$59:$I$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84399999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E2F0-6146-ACCF-3B557B305018}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1956,7 +2059,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:prstDash val="dashDot"/>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2338,6 +2441,106 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F29C-3A49-80EB-9F79A0995AC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD googlenet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$37:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB07-564A-B976-1184D5395E0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3079,7 +3282,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:prstDash val="dashDot"/>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3461,6 +3664,106 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3FE6-3043-BE87-B964693CE396}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD googlenet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$15:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D6A-3547-A341-E635F6965CE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4413,7 +4716,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4896,6 +5199,106 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-416F-7140-82A2-454E41A3F01F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD googlenet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$20:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61799999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBD6-3040-8581-26E6E7200A90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5018,7 +5421,7 @@
         <c:crossAx val="815942720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.1"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5183,7 +5586,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$47</c:f>
+              <c:f>BSD_length!$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5206,7 +5609,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$46:$I$46</c:f>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5239,7 +5642,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$47:$I$47</c:f>
+              <c:f>BSD_length!$B$50:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5258,7 +5661,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$48</c:f>
+              <c:f>BSD_length!$A$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5281,7 +5684,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$46:$I$46</c:f>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5314,7 +5717,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$48:$I$48</c:f>
+              <c:f>BSD_length!$B$51:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5333,7 +5736,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$49</c:f>
+              <c:f>BSD_length!$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5356,7 +5759,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$46:$I$46</c:f>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5389,7 +5792,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$49:$I$49</c:f>
+              <c:f>BSD_length!$B$52:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5408,7 +5811,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$50</c:f>
+              <c:f>BSD_length!$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5431,7 +5834,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$46:$I$46</c:f>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5464,7 +5867,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$50:$I$50</c:f>
+              <c:f>BSD_length!$B$53:$I$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5483,7 +5886,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$51</c:f>
+              <c:f>BSD_length!$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5506,7 +5909,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$46:$I$46</c:f>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5539,7 +5942,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$51:$I$51</c:f>
+              <c:f>BSD_length!$B$54:$I$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5558,7 +5961,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$52</c:f>
+              <c:f>BSD_length!$A$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5581,7 +5984,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$46:$I$46</c:f>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5614,7 +6017,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$52:$I$52</c:f>
+              <c:f>BSD_length!$B$55:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5633,7 +6036,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$53</c:f>
+              <c:f>BSD_length!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5658,7 +6061,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$46:$I$46</c:f>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5691,7 +6094,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$53:$I$53</c:f>
+              <c:f>BSD_length!$B$56:$I$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5710,7 +6113,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$54</c:f>
+              <c:f>BSD_length!$A$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5724,7 +6127,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5734,7 +6137,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$46:$I$46</c:f>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5767,7 +6170,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$54:$I$54</c:f>
+              <c:f>BSD_length!$B$57:$I$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5810,7 +6213,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$55</c:f>
+              <c:f>BSD_length!$A$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5835,7 +6238,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$46:$I$46</c:f>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5868,7 +6271,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$55:$I$55</c:f>
+              <c:f>BSD_length!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5911,7 +6314,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$56</c:f>
+              <c:f>BSD_length!$A$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5935,7 +6338,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$46:$I$46</c:f>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5968,7 +6371,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$56:$I$56</c:f>
+              <c:f>BSD_length!$B$59:$I$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6011,7 +6414,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$57</c:f>
+              <c:f>BSD_length!$A$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6037,7 +6440,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$46:$I$46</c:f>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6070,7 +6473,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$57:$I$57</c:f>
+              <c:f>BSD_length!$B$60:$I$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6113,7 +6516,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$58</c:f>
+              <c:f>BSD_length!$A$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6137,7 +6540,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$46:$I$46</c:f>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6170,7 +6573,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$58:$I$58</c:f>
+              <c:f>BSD_length!$B$61:$I$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6205,6 +6608,106 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F148-0A4E-AC94-66E7C63D2FB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD googlenet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$62:$I$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.186</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57399999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4EF-9A41-81DE-39CAD9D0A35C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6327,7 +6830,7 @@
         <c:crossAx val="864575568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.1"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6497,7 +7000,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$25</c:f>
+              <c:f>BSD_length!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6520,7 +7023,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:f>BSD_length!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6553,7 +7056,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$25:$I$25</c:f>
+              <c:f>BSD_length!$B$28:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6572,7 +7075,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$26</c:f>
+              <c:f>BSD_length!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6595,7 +7098,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:f>BSD_length!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6628,7 +7131,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$26:$I$26</c:f>
+              <c:f>BSD_length!$B$29:$I$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6647,7 +7150,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$27</c:f>
+              <c:f>BSD_length!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6670,7 +7173,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:f>BSD_length!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6703,7 +7206,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$27:$I$27</c:f>
+              <c:f>BSD_length!$B$30:$I$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6746,7 +7249,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$28</c:f>
+              <c:f>BSD_length!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6769,7 +7272,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:f>BSD_length!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6802,7 +7305,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$28:$I$28</c:f>
+              <c:f>BSD_length!$B$31:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6845,7 +7348,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$29</c:f>
+              <c:f>BSD_length!$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6868,7 +7371,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:f>BSD_length!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6901,7 +7404,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$29:$I$29</c:f>
+              <c:f>BSD_length!$B$32:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6944,7 +7447,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$30</c:f>
+              <c:f>BSD_length!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6967,7 +7470,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:f>BSD_length!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7000,7 +7503,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$30:$I$30</c:f>
+              <c:f>BSD_length!$B$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7043,7 +7546,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$31</c:f>
+              <c:f>BSD_length!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7068,7 +7571,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:f>BSD_length!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7101,7 +7604,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$31:$I$31</c:f>
+              <c:f>BSD_length!$B$34:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7144,7 +7647,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$32</c:f>
+              <c:f>BSD_length!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7158,7 +7661,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -7168,7 +7671,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:f>BSD_length!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7201,7 +7704,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$32:$I$32</c:f>
+              <c:f>BSD_length!$B$35:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7244,7 +7747,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$33</c:f>
+              <c:f>BSD_length!$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7269,7 +7772,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:f>BSD_length!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7302,7 +7805,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$33:$I$33</c:f>
+              <c:f>BSD_length!$B$36:$I$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7345,7 +7848,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$34</c:f>
+              <c:f>BSD_length!$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7369,7 +7872,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:f>BSD_length!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7402,7 +7905,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$34:$I$34</c:f>
+              <c:f>BSD_length!$B$37:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7445,7 +7948,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$35</c:f>
+              <c:f>BSD_length!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7471,7 +7974,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:f>BSD_length!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7504,7 +8007,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$35:$I$35</c:f>
+              <c:f>BSD_length!$B$38:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7547,7 +8050,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$36</c:f>
+              <c:f>BSD_length!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7571,7 +8074,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:f>BSD_length!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7604,7 +8107,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$36:$I$36</c:f>
+              <c:f>BSD_length!$B$39:$I$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7639,6 +8142,106 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-002E-244A-A517-359583BDD1A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD googlenet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$40:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BD7-CC4F-9A9A-5D84E78052C0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7761,7 +8364,7 @@
         <c:crossAx val="818160336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.1"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -11305,10 +11908,10 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11337,14 +11940,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11373,14 +11976,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11705,10 +12308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11717,20 +12320,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="13"/>
+      <c r="A1" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
@@ -11788,7 +12391,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>75</v>
       </c>
       <c r="B7" s="4">
@@ -11933,60 +12536,60 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="17">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="17">
         <v>0.35199999999999998</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="17">
         <v>0.66200000000000003</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <v>0.82</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="17">
         <v>0.89800000000000002</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="17">
         <v>0.94199999999999995</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <v>0.96</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="17">
         <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="17">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <v>0.23599999999999999</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="17">
         <v>0.45800000000000002</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="17">
         <v>0.71799999999999997</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="17">
         <v>0.82799999999999996</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="17">
         <v>0.88800000000000001</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="17">
         <v>0.92400000000000004</v>
       </c>
     </row>
@@ -11994,32 +12597,60 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="17">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="17">
         <v>0.314</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="17">
         <v>0.57599999999999996</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="17">
         <v>0.80200000000000005</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="17">
         <v>0.88600000000000001</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="17">
         <v>0.95</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <v>0.96</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="17">
         <v>0.95</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
     <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -12041,17 +12672,17 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -12081,7 +12712,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="15">
+      <c r="A28" s="14">
         <v>70</v>
       </c>
       <c r="B28" s="4">
@@ -12093,7 +12724,7 @@
       <c r="D28" s="4">
         <v>0.40799999999999997</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <v>0.57999999999999996</v>
       </c>
       <c r="F28" s="4">
@@ -12110,7 +12741,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="14">
+      <c r="A29" s="13">
         <v>75</v>
       </c>
       <c r="B29" s="4">
@@ -12225,7 +12856,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -12238,7 +12869,7 @@
       <c r="D33" s="3">
         <v>0.57599999999999996</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="16">
         <v>0.75</v>
       </c>
       <c r="F33" s="3">
@@ -12254,94 +12885,130 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="17">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="17">
         <v>0.17199999999999999</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="17">
         <v>0.35199999999999998</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="17">
         <v>0.52200000000000002</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="17">
         <v>0.71799999999999997</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="17">
         <v>0.83599999999999997</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="17">
         <v>0.89800000000000002</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="17">
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="17">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="17">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="17">
         <v>0.22800000000000001</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="17">
         <v>0.376</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="17">
         <v>0.54400000000000004</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="17">
         <v>0.73599999999999999</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="17">
         <v>0.84</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="17">
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="17">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="17">
         <v>0.14199999999999999</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="17">
         <v>0.32200000000000001</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="17">
         <v>0.52200000000000002</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="17">
         <v>0.70399999999999996</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="17">
         <v>0.83</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="17">
         <v>0.90200000000000002</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="17">
         <v>0.94</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="17">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C37" s="17">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D37" s="17">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="E37" s="17">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="F37" s="17">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="G37" s="17">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="H37" s="17">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I37" s="17">
+        <v>0.94</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+    </row>
+    <row r="38" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -12352,7 +13019,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -12363,7 +13030,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -12374,7 +13041,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -12385,7 +13052,7 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -12396,7 +13063,7 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -12407,7 +13074,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -12418,7 +13085,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -12429,7 +13096,7 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -12440,18 +13107,18 @@
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
     </row>
     <row r="49" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
@@ -12655,60 +13322,60 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="18">
         <v>0.25</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="18">
         <v>0.44</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="18">
         <v>0.59</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F56" s="18">
         <v>0.71</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G56" s="18">
         <v>0.78800000000000003</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="18">
         <v>0.84399999999999997</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I56" s="18">
         <v>0.85199999999999998</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B57" s="17">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="17">
         <v>0.184</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="17">
         <v>0.34399999999999997</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="17">
         <v>0.46800000000000003</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F57" s="17">
         <v>0.61</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G57" s="17">
         <v>0.69599999999999995</v>
       </c>
-      <c r="H57" s="19">
+      <c r="H57" s="17">
         <v>0.76</v>
       </c>
-      <c r="I57" s="19">
+      <c r="I57" s="17">
         <v>0.8</v>
       </c>
     </row>
@@ -12716,29 +13383,58 @@
       <c r="A58" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="19">
+      <c r="B58" s="17">
         <v>0.05</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="17">
         <v>0.24199999999999999</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="17">
         <v>0.41199999999999998</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58" s="17">
         <v>0.55200000000000005</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="17">
         <v>0.68</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G58" s="17">
         <v>0.77</v>
       </c>
-      <c r="H58" s="19">
+      <c r="H58" s="17">
         <v>0.82</v>
       </c>
-      <c r="I58" s="19">
+      <c r="I58" s="17">
         <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="18">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C59" s="18">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="D59" s="18">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="E59" s="18">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="F59" s="18">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="G59" s="18">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H59" s="18">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="I59" s="18">
+        <v>0.84399999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -12755,10 +13451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A6:I58"/>
+  <dimension ref="A6:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:I19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12767,17 +13463,17 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
@@ -13035,60 +13731,60 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="21">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="21">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="21">
         <v>0.252</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="21">
         <v>0.374</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="21">
         <v>0.54600000000000004</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="21">
         <v>0.60399999999999998</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="21">
         <v>0.66200000000000003</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="21">
         <v>0.67</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="17">
         <v>0.01</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="17">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="17">
         <v>0.126</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="17">
         <v>0.20799999999999999</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="17">
         <v>0.36</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="17">
         <v>0.42399999999999999</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="17">
         <v>0.52200000000000002</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="17">
         <v>0.53</v>
       </c>
     </row>
@@ -13096,480 +13792,502 @@
       <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="17">
         <v>1.4E-2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="17">
         <v>0.10199999999999999</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="17">
         <v>0.246</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="17">
         <v>0.376</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="17">
         <v>0.49399999999999999</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="17">
         <v>0.56399999999999995</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="17">
         <v>0.63</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="17">
         <v>0.67</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="17">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C20" s="17">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="H20" s="17">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0.61799999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="1">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1">
-        <v>10</v>
-      </c>
-      <c r="D24" s="1">
-        <v>15</v>
-      </c>
-      <c r="E24" s="1">
-        <v>20</v>
-      </c>
-      <c r="F24" s="1">
-        <v>25</v>
-      </c>
-      <c r="G24" s="1">
-        <v>30</v>
-      </c>
-      <c r="H24" s="1">
-        <v>35</v>
-      </c>
-      <c r="I24" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>50</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>60</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>70</v>
-      </c>
-      <c r="B27" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C27" s="4">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.122</v>
-      </c>
-      <c r="E27" s="16">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0.502</v>
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1">
+        <v>20</v>
+      </c>
+      <c r="F27" s="1">
+        <v>25</v>
+      </c>
+      <c r="G27" s="1">
+        <v>30</v>
+      </c>
+      <c r="H27" s="1">
+        <v>35</v>
+      </c>
+      <c r="I27" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>75</v>
-      </c>
-      <c r="B28" s="3">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0.254</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0.752</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0.79200000000000004</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>80</v>
-      </c>
-      <c r="B29" s="3">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.498</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0.92200000000000004</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B30" s="3">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0.55800000000000005</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D30" s="3">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0.90200000000000002</v>
+        <v>0.122</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0.19400000000000001</v>
       </c>
       <c r="F30" s="3">
-        <v>0.92600000000000005</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="G30" s="3">
-        <v>0.94399999999999995</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="H30" s="3">
-        <v>0.97</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="I30" s="3">
-        <v>0.92600000000000005</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B31" s="3">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0.82599999999999996</v>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.12</v>
       </c>
       <c r="D31" s="3">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0.96799999999999997</v>
+        <v>0.254</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.41399999999999998</v>
       </c>
       <c r="F31" s="3">
-        <v>0.97799999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G31" s="3">
-        <v>0.97199999999999998</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="H31" s="3">
-        <v>0.98399999999999999</v>
+        <v>0.752</v>
       </c>
       <c r="I31" s="3">
-        <v>0.96</v>
+        <v>0.79200000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>2</v>
+      <c r="A32" s="2">
+        <v>80</v>
       </c>
       <c r="B32" s="3">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0.24199999999999999</v>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.24399999999999999</v>
       </c>
       <c r="D32" s="3">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="E32" s="16">
-        <v>0.58399999999999996</v>
+        <v>0.498</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.67400000000000004</v>
       </c>
       <c r="F32" s="3">
-        <v>0.72799999999999998</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="G32" s="3">
-        <v>0.78400000000000003</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="H32" s="3">
-        <v>0.84799999999999998</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="I32" s="3">
-        <v>0.874</v>
+        <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>4</v>
+      <c r="A33" s="2">
+        <v>90</v>
       </c>
       <c r="B33" s="3">
-        <v>2E-3</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="C33" s="3">
-        <v>1.4E-2</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="D33" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="E33" s="3">
-        <v>6.6000000000000003E-2</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="F33" s="3">
-        <v>0.14599999999999999</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="G33" s="3">
-        <v>0.23799999999999999</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="H33" s="3">
-        <v>0.35399999999999998</v>
+        <v>0.97</v>
       </c>
       <c r="I33" s="3">
-        <v>0.47199999999999998</v>
+        <v>0.92600000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="19">
-        <v>0.02</v>
-      </c>
-      <c r="C34" s="19">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D34" s="19">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="E34" s="19">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="F34" s="19">
-        <v>0.35</v>
-      </c>
-      <c r="G34" s="19">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="H34" s="19">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="I34" s="19">
-        <v>0.64400000000000002</v>
+      <c r="A34" s="2">
+        <v>100</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.96</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="19">
-        <v>1.2E-2</v>
-      </c>
-      <c r="C35" s="19">
-        <v>0.03</v>
-      </c>
-      <c r="D35" s="19">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="E35" s="19">
-        <v>0.106</v>
-      </c>
-      <c r="F35" s="19">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="G35" s="19">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="H35" s="19">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="I35" s="19">
-        <v>0.432</v>
+      <c r="A35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.874</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E36" s="3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="C37" s="17">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D37" s="17">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E37" s="17">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="F37" s="17">
+        <v>0.35</v>
+      </c>
+      <c r="G37" s="17">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="H37" s="17">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="I37" s="17">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="17">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C38" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="D38" s="17">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E38" s="17">
+        <v>0.106</v>
+      </c>
+      <c r="F38" s="17">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="G38" s="17">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="H38" s="17">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="I38" s="17">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B39" s="17">
         <v>1.6E-2</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C39" s="17">
         <v>0.06</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D39" s="17">
         <v>0.124</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E39" s="17">
         <v>0.216</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F39" s="17">
         <v>0.33800000000000002</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G39" s="17">
         <v>0.44600000000000001</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H39" s="17">
         <v>0.54200000000000004</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I39" s="17">
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="C40" s="17">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D40" s="17">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E40" s="17">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F40" s="17">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="G40" s="17">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="H40" s="17">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="I40" s="17">
+        <v>0.63400000000000001</v>
+      </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
+    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="1">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
+      <c r="B49" s="1">
         <v>5</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C49" s="1">
         <v>10</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D49" s="1">
         <v>15</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E49" s="1">
         <v>20</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F49" s="1">
         <v>25</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G49" s="1">
         <v>30</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H49" s="1">
         <v>35</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I49" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>50</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>60</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>70</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>75</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -13580,9 +14298,9 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -13593,9 +14311,9 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -13608,7 +14326,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -13620,155 +14338,233 @@
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54">
-        <v>0.11</v>
-      </c>
-      <c r="C54">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="D54">
-        <v>0.442</v>
-      </c>
-      <c r="E54">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="F54">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="G54">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="H54">
-        <v>0.85</v>
-      </c>
-      <c r="I54">
-        <v>0.84199999999999997</v>
-      </c>
+      <c r="A54" s="2">
+        <v>80</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55">
-        <v>2E-3</v>
-      </c>
-      <c r="C55">
-        <v>1.6E-2</v>
-      </c>
-      <c r="D55">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="E55">
-        <v>0.108</v>
-      </c>
-      <c r="F55">
-        <v>0.182</v>
-      </c>
-      <c r="G55">
-        <v>0.27</v>
-      </c>
-      <c r="H55">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="I55">
-        <v>0.48799999999999999</v>
-      </c>
+      <c r="A55" s="2">
+        <v>90</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="21">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="C56" s="21">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="D56" s="21">
-        <v>0.222</v>
-      </c>
-      <c r="E56" s="21">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="F56" s="21">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="G56" s="21">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="H56" s="21">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="I56" s="21">
-        <v>0.57399999999999995</v>
-      </c>
+      <c r="A56" s="2">
+        <v>100</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="C57" s="21">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="D57" s="21">
-        <v>0.114</v>
-      </c>
-      <c r="E57" s="21">
-        <v>0.158</v>
-      </c>
-      <c r="F57" s="21">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="G57" s="21">
-        <v>0.308</v>
-      </c>
-      <c r="H57" s="21">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="I57" s="21">
-        <v>0.38</v>
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>0.11</v>
+      </c>
+      <c r="C57">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="D57">
+        <v>0.442</v>
+      </c>
+      <c r="E57">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="F57">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="G57">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="H57">
+        <v>0.85</v>
+      </c>
+      <c r="I57">
+        <v>0.84199999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>2E-3</v>
+      </c>
+      <c r="C58">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D58">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E58">
+        <v>0.108</v>
+      </c>
+      <c r="F58">
+        <v>0.182</v>
+      </c>
+      <c r="G58">
+        <v>0.27</v>
+      </c>
+      <c r="H58">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="I58">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="19">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C59" s="19">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D59" s="19">
+        <v>0.222</v>
+      </c>
+      <c r="E59" s="19">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F59" s="19">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="G59" s="19">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="H59" s="19">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="I59" s="19">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="C60" s="19">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D60" s="19">
+        <v>0.114</v>
+      </c>
+      <c r="E60" s="19">
+        <v>0.158</v>
+      </c>
+      <c r="F60" s="19">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="G60" s="19">
+        <v>0.308</v>
+      </c>
+      <c r="H60" s="19">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="I60" s="19">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="21">
+      <c r="B61" s="19">
         <v>0.03</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C61" s="19">
         <v>0.09</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D61" s="19">
         <v>0.188</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E61" s="19">
         <v>0.23599999999999999</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F61" s="19">
         <v>0.35199999999999998</v>
       </c>
-      <c r="G58" s="21">
+      <c r="G61" s="19">
         <v>0.39400000000000002</v>
       </c>
-      <c r="H58" s="21">
+      <c r="H61" s="19">
         <v>0.47199999999999998</v>
       </c>
-      <c r="I58" s="21">
+      <c r="I61" s="19">
         <v>0.50600000000000001</v>
       </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="19">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C62" s="19">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D62" s="19">
+        <v>0.186</v>
+      </c>
+      <c r="E62" s="19">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="F62" s="19">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="G62" s="19">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="H62" s="19">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="I62" s="19">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A48:I48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,15 +8,46 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ABE5E7-B4A0-F245-93F3-9920049B5663}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B571528E-E29F-4542-947D-2B1589349B29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="620" windowWidth="24700" windowHeight="14220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
     <sheet name="BSD_length" sheetId="2" r:id="rId2"/>
     <sheet name="ES" sheetId="8" state="hidden" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">BSD_length!$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">BSD_length!$A$11</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">BSD_length!$A$20</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">BSD_length!$A$21</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">BSD_length!$A$8</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">BSD_length!$A$9</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">BSD_length!$B$10:$I$10</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">BSD_length!$B$11:$I$11</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">BSD_length!$B$12:$I$12</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">BSD_length!$B$13:$I$13</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">BSD_length!$B$14:$I$14</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">BSD_length!$B$15:$I$15</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">BSD_length!$A$12</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">BSD_length!$B$16:$I$16</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">BSD_length!$B$17:$I$17</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">BSD_length!$B$18:$I$18</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">BSD_length!$B$19:$I$19</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">BSD_length!$B$20:$I$20</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">BSD_length!$B$21:$I$21</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">BSD_length!$B$7:$I$7</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">BSD_length!$B$8:$I$8</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">BSD_length!$B$9:$I$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">BSD_length!$A$13</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">BSD_length!$A$14</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">BSD_length!$A$15</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">BSD_length!$A$16</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">BSD_length!$A$17</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">BSD_length!$A$18</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">BSD_length!$A$19</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -27,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
   <si>
     <t>wall street with turns (new test routes)</t>
   </si>
@@ -63,6 +94,9 @@
   </si>
   <si>
     <t>BSD googlenet</t>
+  </si>
+  <si>
+    <t>BSD vgg</t>
   </si>
 </sst>
 </file>
@@ -212,11 +246,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1319,6 +1353,108 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E2F0-6146-ACCF-3B557B305018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD vgg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$49:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$60:$I$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36BA-614E-B1ED-70F38703A22C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2544,6 +2680,108 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD vgg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$38:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.442</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90600000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA08-7A42-8365-81E9CFF5B3E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3764,6 +4002,108 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2D6A-3547-A341-E635F6965CE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD vgg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$16:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D170-5B4E-BAC5-D4A6D9222497}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5302,6 +5642,109 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD vgg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$21:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C39-4B4C-BA7A-94E49B924920}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -6708,6 +7151,109 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D4EF-9A41-81DE-39CAD9D0A35C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD vgg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$63:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C03-3346-AAEA-F3419E3EF087}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8242,6 +8788,109 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0BD7-CC4F-9A9A-5D84E78052C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD vgg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$41:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52200000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4406-5646-853D-C0057BBC6EB0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12308,10 +12957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12323,17 +12972,17 @@
       <c r="A1" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
@@ -12651,7 +13300,35 @@
         <v>0.95399999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.79</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.876</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="I16" s="17">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
     <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -12672,17 +13349,17 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -13009,15 +13686,33 @@
       <c r="P37" s="7"/>
     </row>
     <row r="38" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="A38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="17">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C38" s="17">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D38" s="17">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="E38" s="17">
+        <v>0.442</v>
+      </c>
+      <c r="F38" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="G38" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="H38" s="17">
+        <v>0.86</v>
+      </c>
+      <c r="I38" s="17">
+        <v>0.90600000000000003</v>
+      </c>
     </row>
     <row r="39" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
@@ -13109,16 +13804,16 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
@@ -13435,6 +14130,35 @@
       </c>
       <c r="I59" s="18">
         <v>0.84399999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="18">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C60" s="18">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="D60" s="18">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="E60" s="18">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="F60" s="18">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="G60" s="18">
+        <v>0.748</v>
+      </c>
+      <c r="H60" s="18">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="I60" s="18">
+        <v>0.85199999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -13453,8 +14177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13463,17 +14187,17 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
@@ -13734,28 +14458,28 @@
       <c r="A17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>0.252</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>0.374</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <v>0.54600000000000004</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="20">
         <v>0.60399999999999998</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="20">
         <v>0.66200000000000003</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="20">
         <v>0.67</v>
       </c>
     </row>
@@ -13846,21 +14570,49 @@
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="17">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C21" s="17">
+        <v>0.112</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.36</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="I21" s="17">
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
     <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
@@ -14231,6 +14983,35 @@
       </c>
       <c r="I40" s="17">
         <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="17">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C41" s="17">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D41" s="17">
+        <v>0.124</v>
+      </c>
+      <c r="E41" s="17">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F41" s="17">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="G41" s="17">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="H41" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="I41" s="17">
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -14246,17 +15027,17 @@
       <c r="I47"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -14551,14 +15332,33 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
+      <c r="A63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="19">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C63" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="D63" s="19">
+        <v>0.182</v>
+      </c>
+      <c r="E63" s="19">
+        <v>0.246</v>
+      </c>
+      <c r="F63" s="19">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="G63" s="19">
+        <v>0.39</v>
+      </c>
+      <c r="H63" s="19">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="I63" s="19">
+        <v>0.48799999999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,46 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B571528E-E29F-4542-947D-2B1589349B29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39355D9-CBE8-1E49-A77F-7046FDFB0D15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="620" windowWidth="24700" windowHeight="14220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2080" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
     <sheet name="BSD_length" sheetId="2" r:id="rId2"/>
     <sheet name="ES" sheetId="8" state="hidden" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">BSD_length!$A$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">BSD_length!$A$11</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">BSD_length!$A$20</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">BSD_length!$A$21</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">BSD_length!$A$8</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">BSD_length!$A$9</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">BSD_length!$B$10:$I$10</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">BSD_length!$B$11:$I$11</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">BSD_length!$B$12:$I$12</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">BSD_length!$B$13:$I$13</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">BSD_length!$B$14:$I$14</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">BSD_length!$B$15:$I$15</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">BSD_length!$A$12</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">BSD_length!$B$16:$I$16</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">BSD_length!$B$17:$I$17</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">BSD_length!$B$18:$I$18</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">BSD_length!$B$19:$I$19</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">BSD_length!$B$20:$I$20</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">BSD_length!$B$21:$I$21</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">BSD_length!$B$7:$I$7</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">BSD_length!$B$8:$I$8</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">BSD_length!$B$9:$I$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">BSD_length!$A$13</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">BSD_length!$A$14</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">BSD_length!$A$15</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">BSD_length!$A$16</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">BSD_length!$A$17</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">BSD_length!$A$18</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">BSD_length!$A$19</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -12959,8 +12928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14177,7 +14146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39355D9-CBE8-1E49-A77F-7046FDFB0D15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976F2AB4-0FBB-BF4D-B416-F40F7106B479}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11340" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -218,6 +218,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12928,8 +12932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12941,17 +12945,17 @@
       <c r="A1" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
@@ -13166,7 +13170,7 @@
       <c r="D12" s="17">
         <v>0.66200000000000003</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="12">
         <v>0.82</v>
       </c>
       <c r="F12" s="17">
@@ -13318,17 +13322,17 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -13631,7 +13635,7 @@
       <c r="D37" s="17">
         <v>0.32600000000000001</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="12">
         <v>0.52400000000000002</v>
       </c>
       <c r="F37" s="17">
@@ -13773,16 +13777,16 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
@@ -13998,7 +14002,7 @@
       <c r="D56" s="18">
         <v>0.44</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="21">
         <v>0.59</v>
       </c>
       <c r="F56" s="18">
@@ -14146,8 +14150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14156,17 +14160,17 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
@@ -14494,7 +14498,7 @@
       <c r="D19" s="17">
         <v>0.246</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="12">
         <v>0.376</v>
       </c>
       <c r="F19" s="17">
@@ -14571,17 +14575,17 @@
     <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
@@ -14851,7 +14855,7 @@
       <c r="D37" s="17">
         <v>0.14599999999999999</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="12">
         <v>0.26200000000000001</v>
       </c>
       <c r="F37" s="17">
@@ -14996,17 +15000,17 @@
       <c r="I47"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -15197,7 +15201,7 @@
       <c r="D59" s="19">
         <v>0.222</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E59" s="22">
         <v>0.32400000000000001</v>
       </c>
       <c r="F59" s="19">

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976F2AB4-0FBB-BF4D-B416-F40F7106B479}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0758FCF6-D87B-A44F-BC15-1CBD5C0CCB1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="460" windowWidth="28920" windowHeight="14220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
   <si>
     <t>wall street with turns (new test routes)</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>BSD vgg</t>
+  </si>
+  <si>
+    <t>BSD densenet161</t>
   </si>
 </sst>
 </file>
@@ -1431,6 +1434,108 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD densenet161</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$49:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$61:$I$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F76-3A46-BFD6-D07E66383C03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2752,6 +2857,108 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AA08-7A42-8365-81E9CFF5B3E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD densenet161</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$39:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B80-8141-A871-A2174C339ACD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4077,6 +4284,108 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D170-5B4E-BAC5-D4A6D9222497}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD densenet161</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95199999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F7B-A744-9632-E542899A6D7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5718,6 +6027,109 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD densenet161</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.314</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7C3-934F-A72E-F3F637E32625}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -7227,6 +7639,109 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C03-3346-AAEA-F3419E3EF087}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD densenet161</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$64:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66C4-E449-A618-11EB473BBC01}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8864,6 +9379,109 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4406-5646-853D-C0057BBC6EB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD densenet161</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$42:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FBC-C840-83F1-A76576971E9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12930,10 +13548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13302,7 +13920,35 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="17">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.312</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.86</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="I17" s="17">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
     <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -13688,15 +14334,33 @@
       </c>
     </row>
     <row r="39" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="A39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="18">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C39" s="18">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D39" s="18">
+        <v>0.318</v>
+      </c>
+      <c r="E39" s="18">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F39" s="18">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="G39" s="18">
+        <v>0.83</v>
+      </c>
+      <c r="H39" s="18">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I39" s="18">
+        <v>0.92800000000000005</v>
+      </c>
     </row>
     <row r="40" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
@@ -14134,6 +14798,35 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C61" s="18">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="D61" s="18">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="E61" s="18">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="F61" s="18">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="G61" s="18">
+        <v>0.752</v>
+      </c>
+      <c r="H61" s="18">
+        <v>0.82</v>
+      </c>
+      <c r="I61" s="18">
+        <v>0.85399999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A4:I4"/>
@@ -14148,10 +14841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A6:I63"/>
+  <dimension ref="A6:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14572,7 +15265,35 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="C22" s="17">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0.314</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="G22" s="17">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="I22" s="17">
+        <v>0.66</v>
+      </c>
+    </row>
     <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
@@ -14985,6 +15706,35 @@
       </c>
       <c r="I41" s="17">
         <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="17">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C42" s="17">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D42" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E42" s="17">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F42" s="17">
+        <v>0.34</v>
+      </c>
+      <c r="G42" s="17">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="H42" s="17">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="I42" s="17">
+        <v>0.63</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -15331,6 +16081,35 @@
       </c>
       <c r="I63" s="19">
         <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="C64" s="19">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D64" s="19">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E64" s="19">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="F64" s="19">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="G64" s="19">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="H64" s="19">
+        <v>0.49</v>
+      </c>
+      <c r="I64" s="19">
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0758FCF6-D87B-A44F-BC15-1CBD5C0CCB1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734F0F8F-B83E-724E-8D11-1E4E2AF8B683}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="460" windowWidth="28920" windowHeight="14220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="460" windowWidth="25600" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -13550,8 +13550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I34" sqref="B34:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14843,8 +14843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O68" sqref="O68"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
